--- a/data/arange/04_pickup_params/220606 調査報告書+IDs_A先.xlsx
+++ b/data/arange/04_pickup_params/220606 調査報告書+IDs_A先.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yosuke_shibata/04_laboratory/04_part_time/01_code/data/arange/04_pickup_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8E5240-548E-894F-9B64-1F2AEF0F487A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE99B935-A1E7-B241-8454-6903D465E5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="19080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="00_各シート詳細" sheetId="1" r:id="rId1"/>
@@ -7504,7 +7504,7 @@
   </sheetPr>
   <dimension ref="A1:FI101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO1" workbookViewId="0">
+    <sheetView topLeftCell="BO1" workbookViewId="0">
       <selection activeCell="BS1" sqref="BS1"/>
     </sheetView>
   </sheetViews>
@@ -29292,8 +29292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2F29D6-7268-1A42-BA9C-8F877BD2C267}">
   <dimension ref="A1:CH64"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/data/arange/04_pickup_params/220606 調査報告書+IDs_A先.xlsx
+++ b/data/arange/04_pickup_params/220606 調査報告書+IDs_A先.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yosuke_shibata/04_laboratory/04_part_time/01_code/data/arange/04_pickup_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE99B935-A1E7-B241-8454-6903D465E5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE426E3-0920-F44C-B78D-DA366150012D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="00_各シート詳細" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="04_選択特徴量_省略" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29293,7 +29294,7 @@
   <dimension ref="A1:CH64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
